--- a/downloaded_files/MTHS005_Tutorial-35869.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35869.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Caren Sameh Shafik Beshara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240131</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1361,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4537393519</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45909.4167242708</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Tutorial-35869.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35869.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>rawda emad khairy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساندرا رافت بشاى سعد حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra Rafaat</x:t>
   </x:si>
   <x:si>
     <x:t>1240226</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1096,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.6961865741</x:v>
+        <x:v>45928.8592922106</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4159662384</x:v>
+        <x:v>45908.6961865741</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4903921643</x:v>
+        <x:v>45909.4159662384</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4155710995</x:v>
+        <x:v>45909.4903921643</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4162378472</x:v>
+        <x:v>45909.4155710995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45909.4162378472</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4157449884</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4335031597</x:v>
+        <x:v>45909.4157449884</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45909.4335031597</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45909.4167242708</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Tutorial-35869.xlsx
+++ b/downloaded_files/MTHS005_Tutorial-35869.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Caren Sameh Shafik Beshara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد شعبان محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed shaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45909.4167242708</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
